--- a/data/trans_camb/P12A1_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12A1_1_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-20,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-17,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,02</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-55,82; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 37,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-53,55; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,74; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,39; -4,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 15,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-35,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-56,84%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,5</t>
+          <t>12,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>32,48</t>
+          <t>14,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,92</t>
+          <t>12,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,3</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,65</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,18</t>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,74</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8,22</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8,72</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 74,48</t>
+          <t>-2,04; 42,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 80,18</t>
+          <t>-0,55; 46,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-78,83; 82,79</t>
+          <t>-2,47; 46,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-69,84; 40,1</t>
+          <t>-6,58; 3,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 66,03</t>
+          <t>-5,04; 6,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 60,1</t>
+          <t>-3,17; 10,37</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 26,29</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 30,14</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 31,06</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>106,74%</t>
+          <t>355,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>141,51%</t>
+          <t>435,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>378,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-36,75%</t>
+          <t>-49,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>64,49%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>62,85%</t>
+          <t>91,5%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>177,3%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>253,96%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>269,11%</t>
         </is>
       </c>
     </row>
@@ -891,12 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,67; 861,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-70,0; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-40,92; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-35,16; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-11,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,55</t>
+          <t>-3,31</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-84,15; 70,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-74,56; 82,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-30,48; 40,54</t>
+          <t>0,0; 10,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,92; 39,11</t>
+          <t>-6,03; 5,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,26; 45,01</t>
+          <t>-5,43; 6,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 61,96</t>
+          <t>-9,07; 0,38</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 3,38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 3,87</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,79; 2,04</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-17,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>-20,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>-78,56%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-21,63%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-3,46%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-30,87%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-72,26; 282,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,88; 325,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-80,74; 237,86</t>
+          <t>-84,23; 672,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,16; 299,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-85,25; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 335,35</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,34</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-1,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 8,93</t>
+          <t>-4,97; 2,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 9,91</t>
+          <t>-4,95; 2,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 0,0</t>
+          <t>-4,98; 3,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 0,0</t>
+          <t>-4,85; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 4,19</t>
+          <t>-4,85; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 2,26</t>
+          <t>-4,85; 0,0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,84; 0,62</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 0,66</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 0,93</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-52,28%</t>
+          <t>-49,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-50,97%</t>
+          <t>-48,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>-43,79%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-65,26%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-67,03%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-64,92%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-63,8%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-59,98%</t>
         </is>
       </c>
     </row>
@@ -1211,6 +1467,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,92</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 0,0</t>
+          <t>-6,82; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 0,0</t>
+          <t>-6,82; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,4</t>
+          <t>-6,82; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 3,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 0,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 2,38</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 0,0</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 0,0</t>
         </is>
       </c>
     </row>
@@ -1311,20 +1612,35 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-35,15%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3,91%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
@@ -1367,6 +1683,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1405,6 +1736,21 @@
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -1447,6 +1793,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
@@ -1485,6 +1846,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -1523,6 +1899,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>7,86</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 19,68</t>
+          <t>-0,92; 10,93</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 32,58</t>
+          <t>-0,64; 12,75</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 4,0</t>
+          <t>-0,4; 14,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 6,08</t>
+          <t>-2,31; 1,19</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 9,31</t>
+          <t>-2,12; 1,59</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 20,58</t>
+          <t>-2,51; 0,78</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 4,85</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 5,79</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 5,84</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>129,91%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>176,19%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
+          <t>214,33%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-28,04%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-14,26%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
           <t>-40,07%</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>-21,76%</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>-16,85%</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>26,92%</t>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>37,13%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>66,18%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>67,08%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-92,81; 228,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-75,59; 348,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-84,51; 89,66</t>
+          <t>-48,68; 3669,01</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-75,4; 151,25</t>
+          <t>-84,87; 165,46</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-74,26; 109,47</t>
+          <t>-79,37; 184,06</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-60,51; 214,19</t>
+          <t>-87,76; 114,14</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-52,44; 412,56</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-38,43; 522,68</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-46,36; 485,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
